--- a/post_processing/Relationships.xlsx
+++ b/post_processing/Relationships.xlsx
@@ -8,25 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/post_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_E65BC9ECDDD902517B7306855868C2F9508698A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A6681D7-3305-4DAC-855C-95B93829708F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_D4D52D5BD801F9A8C063834629C5F59D42A67F5C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC04EC86-1E0B-4CC5-B2D5-345AB87729F1}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="693" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P_P" sheetId="1" r:id="rId1"/>
     <sheet name="P_E" sheetId="2" r:id="rId2"/>
     <sheet name="P_BM" sheetId="3" r:id="rId3"/>
+    <sheet name="Relationships_20250203_154246" sheetId="4" r:id="rId4"/>
+    <sheet name="Relationships_20250203_154529" sheetId="5" r:id="rId5"/>
+    <sheet name="Relationships_20250203_155207" sheetId="6" r:id="rId6"/>
+    <sheet name="Relationships_20250203_160308" sheetId="7" r:id="rId7"/>
+    <sheet name="Relationships_20250203_162739" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Elements_Range">INDEX(_xlfn.ANCHORARRAY(#REF!),,2)</definedName>
     <definedName name="Quantity_Range">INDEX(_xlfn.ANCHORARRAY(#REF!),,3)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="378">
   <si>
     <t>Product_Id</t>
   </si>
@@ -38,6 +56,1128 @@
   </si>
   <si>
     <t>BM_Cell</t>
+  </si>
+  <si>
+    <t>Product-Element Relationships</t>
+  </si>
+  <si>
+    <t>Element_Id</t>
+  </si>
+  <si>
+    <t>CK21345_6</t>
+  </si>
+  <si>
+    <t>CK213A45_106.189</t>
+  </si>
+  <si>
+    <t>DE446x2137_105.646</t>
+  </si>
+  <si>
+    <t>CK21335_6</t>
+  </si>
+  <si>
+    <t>CK213A35_97.688</t>
+  </si>
+  <si>
+    <t>DE346x2137_84.37</t>
+  </si>
+  <si>
+    <t>CK23130_5</t>
+  </si>
+  <si>
+    <t>CK231A30_97.238</t>
+  </si>
+  <si>
+    <t>DE296x2317_64.134</t>
+  </si>
+  <si>
+    <t>Product-Product Relationships</t>
+  </si>
+  <si>
+    <t>TEST_PRODUCT_1</t>
+  </si>
+  <si>
+    <t>TEST_SUBPRODUCT_1</t>
+  </si>
+  <si>
+    <t>TEST_PRODUCT_3</t>
+  </si>
+  <si>
+    <t>TEST_SUBPRODUCT_2</t>
+  </si>
+  <si>
+    <t>TEST_SHEET_1_30.0</t>
+  </si>
+  <si>
+    <t>TEST_PRODUCT_4</t>
+  </si>
+  <si>
+    <t>TEST_SHEET_4_200.0</t>
+  </si>
+  <si>
+    <t>TEST_SHEET_4_100.0</t>
+  </si>
+  <si>
+    <t>Product-BaseMaterial Relationships</t>
+  </si>
+  <si>
+    <t>TEST_PRODUCT_2</t>
+  </si>
+  <si>
+    <t>TEST_SHEET_2!B2</t>
+  </si>
+  <si>
+    <t>TEST_SHEET_4!D4</t>
+  </si>
+  <si>
+    <t>CKPL222F88_1</t>
+  </si>
+  <si>
+    <t>CKP222F102_1</t>
+  </si>
+  <si>
+    <t>CKPL222F88_2</t>
+  </si>
+  <si>
+    <t>CKP222F102_2</t>
+  </si>
+  <si>
+    <t>CKPL222F88_3</t>
+  </si>
+  <si>
+    <t>CKP222F102_3</t>
+  </si>
+  <si>
+    <t>CKPL222F88_4</t>
+  </si>
+  <si>
+    <t>CKP222F102_4</t>
+  </si>
+  <si>
+    <t>CKPL222F88_5</t>
+  </si>
+  <si>
+    <t>CKP222F102_5</t>
+  </si>
+  <si>
+    <t>CKPL222F88_6</t>
+  </si>
+  <si>
+    <t>CKP222F102_6</t>
+  </si>
+  <si>
+    <t>CKPL222F88_7</t>
+  </si>
+  <si>
+    <t>CKP222F102_7</t>
+  </si>
+  <si>
+    <t>CKPL222F88_8</t>
+  </si>
+  <si>
+    <t>CKP222F102_8</t>
+  </si>
+  <si>
+    <t>CKPL222F88_9</t>
+  </si>
+  <si>
+    <t>CKP222F102_9</t>
+  </si>
+  <si>
+    <t>CKPL222F88_10</t>
+  </si>
+  <si>
+    <t>CKP222F102_10</t>
+  </si>
+  <si>
+    <t>CKPL231F88_1</t>
+  </si>
+  <si>
+    <t>CKP231F102_1</t>
+  </si>
+  <si>
+    <t>CKPL231F88_2</t>
+  </si>
+  <si>
+    <t>CKP231F102_2</t>
+  </si>
+  <si>
+    <t>CKPL231F88_3</t>
+  </si>
+  <si>
+    <t>CKP231F102_3</t>
+  </si>
+  <si>
+    <t>CKPL231F88_4</t>
+  </si>
+  <si>
+    <t>CKP231F102_4</t>
+  </si>
+  <si>
+    <t>CKPL231F88_6</t>
+  </si>
+  <si>
+    <t>CKP231F102_6</t>
+  </si>
+  <si>
+    <t>CKPL231F88_7</t>
+  </si>
+  <si>
+    <t>CKP231F102_7</t>
+  </si>
+  <si>
+    <t>CKPL231F88_8</t>
+  </si>
+  <si>
+    <t>CKP231F102_8</t>
+  </si>
+  <si>
+    <t>CKPL231F88_9</t>
+  </si>
+  <si>
+    <t>CKP231F102_9</t>
+  </si>
+  <si>
+    <t>CKPL231F88_10</t>
+  </si>
+  <si>
+    <t>CKP231F102_10</t>
+  </si>
+  <si>
+    <t>LADE 600x500_20.676</t>
+  </si>
+  <si>
+    <t>COPBL40FLES_1</t>
+  </si>
+  <si>
+    <t>CO40_50.914</t>
+  </si>
+  <si>
+    <t>PLADE 40_36.601</t>
+  </si>
+  <si>
+    <t>FR396x790_7.151</t>
+  </si>
+  <si>
+    <t>COPBL40FLES_2</t>
+  </si>
+  <si>
+    <t>FR396x790_11.367</t>
+  </si>
+  <si>
+    <t>COPBL40FLES_3</t>
+  </si>
+  <si>
+    <t>FR396x790_20.658</t>
+  </si>
+  <si>
+    <t>COPBL40FLES_4</t>
+  </si>
+  <si>
+    <t>FR396x790_24.444</t>
+  </si>
+  <si>
+    <t>COPBL40FLES_5</t>
+  </si>
+  <si>
+    <t>FR396x790_27.713</t>
+  </si>
+  <si>
+    <t>COPBL40FLES_6</t>
+  </si>
+  <si>
+    <t>FR396x790_34.595</t>
+  </si>
+  <si>
+    <t>COPBL40FLES_7</t>
+  </si>
+  <si>
+    <t>FR396x790_38.037</t>
+  </si>
+  <si>
+    <t>COPBL40FLES_8</t>
+  </si>
+  <si>
+    <t>FR396x790_41.478</t>
+  </si>
+  <si>
+    <t>COPBL40FLES_9</t>
+  </si>
+  <si>
+    <t>FR396x790_55.243</t>
+  </si>
+  <si>
+    <t>COPBL40FLES_10</t>
+  </si>
+  <si>
+    <t>FR396x790_65.566</t>
+  </si>
+  <si>
+    <t>COPBL45FLES_2</t>
+  </si>
+  <si>
+    <t>CO45_50.632</t>
+  </si>
+  <si>
+    <t>PLADE 45_37.978</t>
+  </si>
+  <si>
+    <t>FR446x790_12.405</t>
+  </si>
+  <si>
+    <t>COPBL45FLES_3</t>
+  </si>
+  <si>
+    <t>FR446x790_22.869</t>
+  </si>
+  <si>
+    <t>COPBL45FLES_4</t>
+  </si>
+  <si>
+    <t>FR446x790_27.132</t>
+  </si>
+  <si>
+    <t>COPBL45FLES_5</t>
+  </si>
+  <si>
+    <t>FR446x790_30.814</t>
+  </si>
+  <si>
+    <t>COPBL45FLES_6</t>
+  </si>
+  <si>
+    <t>FR446x790_38.566</t>
+  </si>
+  <si>
+    <t>COPBL45FLES_7</t>
+  </si>
+  <si>
+    <t>FR446x790_42.442</t>
+  </si>
+  <si>
+    <t>COPBL45FLES_8</t>
+  </si>
+  <si>
+    <t>FR446x790_46.317</t>
+  </si>
+  <si>
+    <t>COPBL45FLES_9</t>
+  </si>
+  <si>
+    <t>FR446x790_61.82</t>
+  </si>
+  <si>
+    <t>COPBL45FLES_10</t>
+  </si>
+  <si>
+    <t>FR446x790_73.447</t>
+  </si>
+  <si>
+    <t>COPBL40_2</t>
+  </si>
+  <si>
+    <t>COPBL40_3</t>
+  </si>
+  <si>
+    <t>COPBL40_4</t>
+  </si>
+  <si>
+    <t>COPBL40_5</t>
+  </si>
+  <si>
+    <t>COPBL40_6</t>
+  </si>
+  <si>
+    <t>COPBL40_7</t>
+  </si>
+  <si>
+    <t>COPBL40_8</t>
+  </si>
+  <si>
+    <t>COPBL40_9</t>
+  </si>
+  <si>
+    <t>COPBL40_10</t>
+  </si>
+  <si>
+    <t>COPBL45_2</t>
+  </si>
+  <si>
+    <t>COPBL45_3</t>
+  </si>
+  <si>
+    <t>COPBL45_4</t>
+  </si>
+  <si>
+    <t>COPBL45_5</t>
+  </si>
+  <si>
+    <t>COPBL45_6</t>
+  </si>
+  <si>
+    <t>COPBL45_7</t>
+  </si>
+  <si>
+    <t>COPBL45_8</t>
+  </si>
+  <si>
+    <t>COPBL45_9</t>
+  </si>
+  <si>
+    <t>COPBL45_10</t>
+  </si>
+  <si>
+    <t>COPBL50_2</t>
+  </si>
+  <si>
+    <t>CO50_51.683</t>
+  </si>
+  <si>
+    <t>PLADE 50_38.514</t>
+  </si>
+  <si>
+    <t>FR496x790_13.442</t>
+  </si>
+  <si>
+    <t>COPBL50_3</t>
+  </si>
+  <si>
+    <t>FR496x790_25.08</t>
+  </si>
+  <si>
+    <t>COPBL50_4</t>
+  </si>
+  <si>
+    <t>FR496x790_29.821</t>
+  </si>
+  <si>
+    <t>COPBL50_5</t>
+  </si>
+  <si>
+    <t>FR496x790_33.916</t>
+  </si>
+  <si>
+    <t>COPBL50_6</t>
+  </si>
+  <si>
+    <t>FR496x790_42.536</t>
+  </si>
+  <si>
+    <t>COPBL50_7</t>
+  </si>
+  <si>
+    <t>FR496x790_46.847</t>
+  </si>
+  <si>
+    <t>COPBL50_8</t>
+  </si>
+  <si>
+    <t>FR496x790_51.157</t>
+  </si>
+  <si>
+    <t>COPBL50_9</t>
+  </si>
+  <si>
+    <t>FR496x790_68.398</t>
+  </si>
+  <si>
+    <t>COPBL50_10</t>
+  </si>
+  <si>
+    <t>FR496x790_81.328</t>
+  </si>
+  <si>
+    <t>C132B45D131_1</t>
+  </si>
+  <si>
+    <t>DE446x1319_13.867</t>
+  </si>
+  <si>
+    <t>C132B45D131_2</t>
+  </si>
+  <si>
+    <t>DE446x1319_21.073</t>
+  </si>
+  <si>
+    <t>C132B45D131_3</t>
+  </si>
+  <si>
+    <t>DE446x1319_36.957</t>
+  </si>
+  <si>
+    <t>C132B45D131_4</t>
+  </si>
+  <si>
+    <t>DE446x1319_43.428</t>
+  </si>
+  <si>
+    <t>C132B45D131_6</t>
+  </si>
+  <si>
+    <t>DE446x1319_60.782</t>
+  </si>
+  <si>
+    <t>C132B45D131_7</t>
+  </si>
+  <si>
+    <t>DE446x1319_66.664</t>
+  </si>
+  <si>
+    <t>C132B45D131_8</t>
+  </si>
+  <si>
+    <t>DE446x1319_72.547</t>
+  </si>
+  <si>
+    <t>C132B45D131_9</t>
+  </si>
+  <si>
+    <t>DE446x1319_96.078</t>
+  </si>
+  <si>
+    <t>C132B45D131_10</t>
+  </si>
+  <si>
+    <t>DE446x1319_113.726</t>
+  </si>
+  <si>
+    <t>C132B50D131_1</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_14.603</t>
+  </si>
+  <si>
+    <t>C132B50D131_2</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_22.617</t>
+  </si>
+  <si>
+    <t>C132B50D131_3</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_40.281</t>
+  </si>
+  <si>
+    <t>C132B50D131_4</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_47.478</t>
+  </si>
+  <si>
+    <t>C132B50D131_6</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_66.777</t>
+  </si>
+  <si>
+    <t>C132B50D131_7</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_73.319</t>
+  </si>
+  <si>
+    <t>C132B50D131_8</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_79.862</t>
+  </si>
+  <si>
+    <t>C132B50D131_9</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_106.031</t>
+  </si>
+  <si>
+    <t>C132B50D131_10</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_125.657</t>
+  </si>
+  <si>
+    <t>C132B55D131_1</t>
+  </si>
+  <si>
+    <t>DE546x1319_15.339</t>
+  </si>
+  <si>
+    <t>C132B55D131_2</t>
+  </si>
+  <si>
+    <t>DE546x1319_24.161</t>
+  </si>
+  <si>
+    <t>C132B55D131_3</t>
+  </si>
+  <si>
+    <t>DE546x1319_43.606</t>
+  </si>
+  <si>
+    <t>C132B55D131_4</t>
+  </si>
+  <si>
+    <t>DE546x1319_51.528</t>
+  </si>
+  <si>
+    <t>C132B55D131_6</t>
+  </si>
+  <si>
+    <t>DE546x1319_72.773</t>
+  </si>
+  <si>
+    <t>C132B55D131_7</t>
+  </si>
+  <si>
+    <t>DE546x1319_79.974</t>
+  </si>
+  <si>
+    <t>C132B55D131_8</t>
+  </si>
+  <si>
+    <t>DE546x1319_87.176</t>
+  </si>
+  <si>
+    <t>C132B55D131_9</t>
+  </si>
+  <si>
+    <t>DE546x1319_115.983</t>
+  </si>
+  <si>
+    <t>C132B55D131_10</t>
+  </si>
+  <si>
+    <t>DE546x1319_137.588</t>
+  </si>
+  <si>
+    <t>C132B60D131_1</t>
+  </si>
+  <si>
+    <t>DE596x1319 _16.075</t>
+  </si>
+  <si>
+    <t>C132B60D131_2</t>
+  </si>
+  <si>
+    <t>DE596x1319 _25.705</t>
+  </si>
+  <si>
+    <t>C132B60D131_3</t>
+  </si>
+  <si>
+    <t>DE596x1319 _46.93</t>
+  </si>
+  <si>
+    <t>C132B60D131_4</t>
+  </si>
+  <si>
+    <t>DE596x1319 _55.578</t>
+  </si>
+  <si>
+    <t>C132B60D131_6</t>
+  </si>
+  <si>
+    <t>DE596x1319 _78.768</t>
+  </si>
+  <si>
+    <t>C132B60D131_7</t>
+  </si>
+  <si>
+    <t>DE596x1319 _86.629</t>
+  </si>
+  <si>
+    <t>C132B60D131_8</t>
+  </si>
+  <si>
+    <t>DE596x1319 _94.491</t>
+  </si>
+  <si>
+    <t>C132B60D131_9</t>
+  </si>
+  <si>
+    <t>DE596x1319 _125.936</t>
+  </si>
+  <si>
+    <t>C132B60D131_10</t>
+  </si>
+  <si>
+    <t>DE596x1319 _149.519</t>
+  </si>
+  <si>
+    <t>C132B50-G_5</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_53.693</t>
+  </si>
+  <si>
+    <t>C132B50-G_6</t>
+  </si>
+  <si>
+    <t>C132B50-G_7</t>
+  </si>
+  <si>
+    <t>C132B50-G_8</t>
+  </si>
+  <si>
+    <t>C132B50-G_9</t>
+  </si>
+  <si>
+    <t>C132B55-G_5</t>
+  </si>
+  <si>
+    <t>DE546x1319_58.369</t>
+  </si>
+  <si>
+    <t>C132B55-G_6</t>
+  </si>
+  <si>
+    <t>C132B55-G_7</t>
+  </si>
+  <si>
+    <t>C132B55-G_8</t>
+  </si>
+  <si>
+    <t>C132B55-G_9</t>
+  </si>
+  <si>
+    <t>C132B60-G_5</t>
+  </si>
+  <si>
+    <t>DE596x1319 _63.046</t>
+  </si>
+  <si>
+    <t>C132B60-G_6</t>
+  </si>
+  <si>
+    <t>C132B60-G_7</t>
+  </si>
+  <si>
+    <t>C132B60-G_8</t>
+  </si>
+  <si>
+    <t>C132B60-G_9</t>
+  </si>
+  <si>
+    <t>C132BL45D131_1</t>
+  </si>
+  <si>
+    <t>DE446x1211_12.724</t>
+  </si>
+  <si>
+    <t>C132BL45D131_2</t>
+  </si>
+  <si>
+    <t>DE446x1211_18.849</t>
+  </si>
+  <si>
+    <t>C132BL45D131_3</t>
+  </si>
+  <si>
+    <t>DE446x1211_32.348</t>
+  </si>
+  <si>
+    <t>C132BL45D131_4</t>
+  </si>
+  <si>
+    <t>DE446x1211_37.847</t>
+  </si>
+  <si>
+    <t>C132BL45D131_5</t>
+  </si>
+  <si>
+    <t>DE446x1211_42.597</t>
+  </si>
+  <si>
+    <t>C132BL45D131_6</t>
+  </si>
+  <si>
+    <t>DE446x1211_52.596</t>
+  </si>
+  <si>
+    <t>C132BL45D131_7</t>
+  </si>
+  <si>
+    <t>DE446x1211_57.596</t>
+  </si>
+  <si>
+    <t>C132BL45D131_8</t>
+  </si>
+  <si>
+    <t>DE446x1211_62.596</t>
+  </si>
+  <si>
+    <t>C132BL45D131_9</t>
+  </si>
+  <si>
+    <t>DE446x1211_82.594</t>
+  </si>
+  <si>
+    <t>C132BL45D131_10</t>
+  </si>
+  <si>
+    <t>DE446x1211_97.593</t>
+  </si>
+  <si>
+    <t>C141B45D140_2</t>
+  </si>
+  <si>
+    <t>DE446x1319_22.129</t>
+  </si>
+  <si>
+    <t>C141B45D140_3</t>
+  </si>
+  <si>
+    <t>DE446x1319_39.145</t>
+  </si>
+  <si>
+    <t>C141B45D140_4</t>
+  </si>
+  <si>
+    <t>DE446x1319_46.077</t>
+  </si>
+  <si>
+    <t>C141B45D140_5</t>
+  </si>
+  <si>
+    <t>DE446x1319_52.064</t>
+  </si>
+  <si>
+    <t>C141B45D140_6</t>
+  </si>
+  <si>
+    <t>DE446x1319_64.668</t>
+  </si>
+  <si>
+    <t>C141B45D140_7</t>
+  </si>
+  <si>
+    <t>DE446x1319_70.97</t>
+  </si>
+  <si>
+    <t>C141B45D140_8</t>
+  </si>
+  <si>
+    <t>DE446x1319_77.272</t>
+  </si>
+  <si>
+    <t>C141B45D140_9</t>
+  </si>
+  <si>
+    <t>DE446x1319_102.48</t>
+  </si>
+  <si>
+    <t>C141B45D140_10</t>
+  </si>
+  <si>
+    <t>DE446x1319_121.386</t>
+  </si>
+  <si>
+    <t>C141B50D140_1</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_15.194</t>
+  </si>
+  <si>
+    <t>C141B50D140_2</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_23.779</t>
+  </si>
+  <si>
+    <t>C141B50D140_3</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_42.702</t>
+  </si>
+  <si>
+    <t>C141B50D140_4</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_50.411</t>
+  </si>
+  <si>
+    <t>C141B50D140_5</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_57.069</t>
+  </si>
+  <si>
+    <t>C141B50D140_6</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_71.086</t>
+  </si>
+  <si>
+    <t>C141B50D140_7</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_78.095</t>
+  </si>
+  <si>
+    <t>C141B50D140_8</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_85.103</t>
+  </si>
+  <si>
+    <t>C141B50D140_9</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_113.137</t>
+  </si>
+  <si>
+    <t>C141B50D140_10</t>
+  </si>
+  <si>
+    <t>DE496x1319 glas_134.163</t>
+  </si>
+  <si>
+    <t>C141B55D140_1</t>
+  </si>
+  <si>
+    <t>DE546x1319_15.978</t>
+  </si>
+  <si>
+    <t>C141B55D140_2</t>
+  </si>
+  <si>
+    <t>DE546x1319_25.429</t>
+  </si>
+  <si>
+    <t>C141B55D140_3</t>
+  </si>
+  <si>
+    <t>DE546x1319_46.259</t>
+  </si>
+  <si>
+    <t>C141B55D140_4</t>
+  </si>
+  <si>
+    <t>DE546x1319_54.745</t>
+  </si>
+  <si>
+    <t>C141B55D140_5</t>
+  </si>
+  <si>
+    <t>DE546x1319_62.075</t>
+  </si>
+  <si>
+    <t>C141B55D140_6</t>
+  </si>
+  <si>
+    <t>DE546x1319_77.505</t>
+  </si>
+  <si>
+    <t>C141B55D140_7</t>
+  </si>
+  <si>
+    <t>DE546x1319_85.22</t>
+  </si>
+  <si>
+    <t>C141B55D140_8</t>
+  </si>
+  <si>
+    <t>DE546x1319_92.935</t>
+  </si>
+  <si>
+    <t>C141B55D140_9</t>
+  </si>
+  <si>
+    <t>DE546x1319_123.795</t>
+  </si>
+  <si>
+    <t>C141B55D140_10</t>
+  </si>
+  <si>
+    <t>DE546x1319_146.94</t>
+  </si>
+  <si>
+    <t>C141B60D140_1</t>
+  </si>
+  <si>
+    <t>DE596x1319 _16.762</t>
+  </si>
+  <si>
+    <t>C141B60D140_2</t>
+  </si>
+  <si>
+    <t>DE596x1319 _27.078</t>
+  </si>
+  <si>
+    <t>C141B60D140_3</t>
+  </si>
+  <si>
+    <t>DE596x1319 _49.816</t>
+  </si>
+  <si>
+    <t>C141B60D140_4</t>
+  </si>
+  <si>
+    <t>DE596x1319 _59.08</t>
+  </si>
+  <si>
+    <t>C141B60D140_5</t>
+  </si>
+  <si>
+    <t>DE596x1319 _67.08</t>
+  </si>
+  <si>
+    <t>C141B60D140_6</t>
+  </si>
+  <si>
+    <t>DE596x1319 _83.923</t>
+  </si>
+  <si>
+    <t>C141B60D140_7</t>
+  </si>
+  <si>
+    <t>DE596x1319 _92.345</t>
+  </si>
+  <si>
+    <t>C141B60D140_8</t>
+  </si>
+  <si>
+    <t>DE596x1319 _100.766</t>
+  </si>
+  <si>
+    <t>C141B60D140_9</t>
+  </si>
+  <si>
+    <t>DE596x1319 _134.452</t>
+  </si>
+  <si>
+    <t>C141B60D140_10</t>
+  </si>
+  <si>
+    <t>DE596x1319 _159.717</t>
+  </si>
+  <si>
+    <t>C141B45-G_5</t>
+  </si>
+  <si>
+    <t>C141B45-G_6</t>
+  </si>
+  <si>
+    <t>C141B45-G_7</t>
+  </si>
+  <si>
+    <t>C141B45-G_8</t>
+  </si>
+  <si>
+    <t>C141B45-G_9</t>
+  </si>
+  <si>
+    <t>C141B50-G_5</t>
+  </si>
+  <si>
+    <t>C141B50-G_6</t>
+  </si>
+  <si>
+    <t>C141B50-G_7</t>
+  </si>
+  <si>
+    <t>C141B50-G_8</t>
+  </si>
+  <si>
+    <t>C141B50-G_9</t>
+  </si>
+  <si>
+    <t>C141B55-G_5</t>
+  </si>
+  <si>
+    <t>C141B55-G_6</t>
+  </si>
+  <si>
+    <t>C141B55-G_7</t>
+  </si>
+  <si>
+    <t>C141B55-G_8</t>
+  </si>
+  <si>
+    <t>C141B55-G_9</t>
+  </si>
+  <si>
+    <t>C141B60-G_5</t>
+  </si>
+  <si>
+    <t>C141B60-G_6</t>
+  </si>
+  <si>
+    <t>C141B60-G_7</t>
+  </si>
+  <si>
+    <t>C141B60-G_8</t>
+  </si>
+  <si>
+    <t>C141B60-G_9</t>
+  </si>
+  <si>
+    <t>C141BL45D141_1</t>
+  </si>
+  <si>
+    <t>DE446x1211_13.244</t>
+  </si>
+  <si>
+    <t>C141BL45D141_2</t>
+  </si>
+  <si>
+    <t>DE446x1211_19.86</t>
+  </si>
+  <si>
+    <t>C141BL45D141_3</t>
+  </si>
+  <si>
+    <t>DE446x1211_34.443</t>
+  </si>
+  <si>
+    <t>C141BL45D141_4</t>
+  </si>
+  <si>
+    <t>DE446x1211_40.384</t>
+  </si>
+  <si>
+    <t>C141BL45D141_5</t>
+  </si>
+  <si>
+    <t>DE446x1211_45.515</t>
+  </si>
+  <si>
+    <t>lade ondiep 45_18.578</t>
+  </si>
+  <si>
+    <t>front lade 446x196_9.702</t>
+  </si>
+  <si>
+    <t>C141BL45D141_7</t>
+  </si>
+  <si>
+    <t>DE446x1211_61.718</t>
+  </si>
+  <si>
+    <t>C141BL45D141_8</t>
+  </si>
+  <si>
+    <t>DE446x1211_67.119</t>
+  </si>
+  <si>
+    <t>C141BL45D141_9</t>
+  </si>
+  <si>
+    <t>DE446x1211_88.723</t>
+  </si>
+  <si>
+    <t>C141BL45D141_10</t>
+  </si>
+  <si>
+    <t>C141BL45-G_7</t>
+  </si>
+  <si>
+    <t>C141BL45-G_8</t>
+  </si>
+  <si>
+    <t>C141BL45-G_9</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -488,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -585,4 +1725,6422 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B320"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>115</v>
+      </c>
+      <c r="B121" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>115</v>
+      </c>
+      <c r="B122" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>116</v>
+      </c>
+      <c r="B123" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>116</v>
+      </c>
+      <c r="B125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>117</v>
+      </c>
+      <c r="B128" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>118</v>
+      </c>
+      <c r="B129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>118</v>
+      </c>
+      <c r="B130" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>118</v>
+      </c>
+      <c r="B131" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>119</v>
+      </c>
+      <c r="B132" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>119</v>
+      </c>
+      <c r="B133" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>119</v>
+      </c>
+      <c r="B134" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>120</v>
+      </c>
+      <c r="B135" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>120</v>
+      </c>
+      <c r="B137" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>121</v>
+      </c>
+      <c r="B138" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>121</v>
+      </c>
+      <c r="B139" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>121</v>
+      </c>
+      <c r="B140" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>122</v>
+      </c>
+      <c r="B141" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>122</v>
+      </c>
+      <c r="B142" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>122</v>
+      </c>
+      <c r="B143" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>123</v>
+      </c>
+      <c r="B145" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>123</v>
+      </c>
+      <c r="B146" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>124</v>
+      </c>
+      <c r="B148" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>125</v>
+      </c>
+      <c r="B150" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>125</v>
+      </c>
+      <c r="B152" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>126</v>
+      </c>
+      <c r="B153" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>126</v>
+      </c>
+      <c r="B154" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>126</v>
+      </c>
+      <c r="B155" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>127</v>
+      </c>
+      <c r="B156" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>127</v>
+      </c>
+      <c r="B157" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>131</v>
+      </c>
+      <c r="B159" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>131</v>
+      </c>
+      <c r="B160" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>131</v>
+      </c>
+      <c r="B161" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>133</v>
+      </c>
+      <c r="B162" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>133</v>
+      </c>
+      <c r="B163" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>135</v>
+      </c>
+      <c r="B165" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>135</v>
+      </c>
+      <c r="B166" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>135</v>
+      </c>
+      <c r="B167" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>137</v>
+      </c>
+      <c r="B168" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>137</v>
+      </c>
+      <c r="B170" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>139</v>
+      </c>
+      <c r="B171" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>139</v>
+      </c>
+      <c r="B172" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>139</v>
+      </c>
+      <c r="B173" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>141</v>
+      </c>
+      <c r="B174" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>141</v>
+      </c>
+      <c r="B175" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>141</v>
+      </c>
+      <c r="B176" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>143</v>
+      </c>
+      <c r="B177" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>143</v>
+      </c>
+      <c r="B178" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>143</v>
+      </c>
+      <c r="B179" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>145</v>
+      </c>
+      <c r="B180" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>145</v>
+      </c>
+      <c r="B181" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>145</v>
+      </c>
+      <c r="B182" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>147</v>
+      </c>
+      <c r="B183" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>149</v>
+      </c>
+      <c r="B184" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>151</v>
+      </c>
+      <c r="B185" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>153</v>
+      </c>
+      <c r="B186" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>155</v>
+      </c>
+      <c r="B187" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>155</v>
+      </c>
+      <c r="B188" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>157</v>
+      </c>
+      <c r="B189" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>159</v>
+      </c>
+      <c r="B190" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>161</v>
+      </c>
+      <c r="B191" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>163</v>
+      </c>
+      <c r="B192" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>165</v>
+      </c>
+      <c r="B193" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>167</v>
+      </c>
+      <c r="B194" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>169</v>
+      </c>
+      <c r="B195" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>171</v>
+      </c>
+      <c r="B196" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>173</v>
+      </c>
+      <c r="B197" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>173</v>
+      </c>
+      <c r="B198" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>175</v>
+      </c>
+      <c r="B199" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>177</v>
+      </c>
+      <c r="B200" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>179</v>
+      </c>
+      <c r="B201" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>181</v>
+      </c>
+      <c r="B202" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>183</v>
+      </c>
+      <c r="B203" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>185</v>
+      </c>
+      <c r="B204" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>187</v>
+      </c>
+      <c r="B205" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>189</v>
+      </c>
+      <c r="B206" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>191</v>
+      </c>
+      <c r="B207" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>191</v>
+      </c>
+      <c r="B208" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>193</v>
+      </c>
+      <c r="B209" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>195</v>
+      </c>
+      <c r="B210" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>197</v>
+      </c>
+      <c r="B211" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>199</v>
+      </c>
+      <c r="B212" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>201</v>
+      </c>
+      <c r="B213" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>203</v>
+      </c>
+      <c r="B214" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>205</v>
+      </c>
+      <c r="B215" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>207</v>
+      </c>
+      <c r="B216" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>209</v>
+      </c>
+      <c r="B217" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>209</v>
+      </c>
+      <c r="B218" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>211</v>
+      </c>
+      <c r="B219" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>213</v>
+      </c>
+      <c r="B220" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>215</v>
+      </c>
+      <c r="B221" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>217</v>
+      </c>
+      <c r="B222" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>219</v>
+      </c>
+      <c r="B223" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>221</v>
+      </c>
+      <c r="B224" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>222</v>
+      </c>
+      <c r="B225" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>223</v>
+      </c>
+      <c r="B226" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>224</v>
+      </c>
+      <c r="B227" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>225</v>
+      </c>
+      <c r="B228" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>247</v>
+      </c>
+      <c r="B243" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>249</v>
+      </c>
+      <c r="B244" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>251</v>
+      </c>
+      <c r="B245" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>253</v>
+      </c>
+      <c r="B246" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>255</v>
+      </c>
+      <c r="B247" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>257</v>
+      </c>
+      <c r="B248" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>259</v>
+      </c>
+      <c r="B249" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>261</v>
+      </c>
+      <c r="B250" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>263</v>
+      </c>
+      <c r="B251" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>265</v>
+      </c>
+      <c r="B252" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>267</v>
+      </c>
+      <c r="B253" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>269</v>
+      </c>
+      <c r="B254" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>271</v>
+      </c>
+      <c r="B255" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>273</v>
+      </c>
+      <c r="B256" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>275</v>
+      </c>
+      <c r="B257" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>277</v>
+      </c>
+      <c r="B258" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>279</v>
+      </c>
+      <c r="B259" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>281</v>
+      </c>
+      <c r="B260" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>283</v>
+      </c>
+      <c r="B261" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>285</v>
+      </c>
+      <c r="B262" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>287</v>
+      </c>
+      <c r="B263" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>289</v>
+      </c>
+      <c r="B264" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>291</v>
+      </c>
+      <c r="B265" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>293</v>
+      </c>
+      <c r="B266" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>295</v>
+      </c>
+      <c r="B267" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>297</v>
+      </c>
+      <c r="B268" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>299</v>
+      </c>
+      <c r="B269" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>301</v>
+      </c>
+      <c r="B270" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>303</v>
+      </c>
+      <c r="B271" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>305</v>
+      </c>
+      <c r="B272" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>307</v>
+      </c>
+      <c r="B273" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>309</v>
+      </c>
+      <c r="B274" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>311</v>
+      </c>
+      <c r="B275" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>313</v>
+      </c>
+      <c r="B276" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>315</v>
+      </c>
+      <c r="B277" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>317</v>
+      </c>
+      <c r="B278" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>319</v>
+      </c>
+      <c r="B279" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>321</v>
+      </c>
+      <c r="B280" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>323</v>
+      </c>
+      <c r="B281" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>325</v>
+      </c>
+      <c r="B282" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>327</v>
+      </c>
+      <c r="B283" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>329</v>
+      </c>
+      <c r="B284" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>331</v>
+      </c>
+      <c r="B285" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>333</v>
+      </c>
+      <c r="B286" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>335</v>
+      </c>
+      <c r="B287" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>336</v>
+      </c>
+      <c r="B288" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>337</v>
+      </c>
+      <c r="B289" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>338</v>
+      </c>
+      <c r="B290" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>339</v>
+      </c>
+      <c r="B291" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>340</v>
+      </c>
+      <c r="B292" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>341</v>
+      </c>
+      <c r="B293" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>342</v>
+      </c>
+      <c r="B294" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>343</v>
+      </c>
+      <c r="B295" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>344</v>
+      </c>
+      <c r="B296" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>345</v>
+      </c>
+      <c r="B297" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>346</v>
+      </c>
+      <c r="B298" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>347</v>
+      </c>
+      <c r="B299" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>348</v>
+      </c>
+      <c r="B300" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>349</v>
+      </c>
+      <c r="B301" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>350</v>
+      </c>
+      <c r="B302" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>351</v>
+      </c>
+      <c r="B303" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>352</v>
+      </c>
+      <c r="B304" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>353</v>
+      </c>
+      <c r="B305" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>354</v>
+      </c>
+      <c r="B306" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>355</v>
+      </c>
+      <c r="B307" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>357</v>
+      </c>
+      <c r="B308" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>359</v>
+      </c>
+      <c r="B309" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>361</v>
+      </c>
+      <c r="B310" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>363</v>
+      </c>
+      <c r="B311" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>363</v>
+      </c>
+      <c r="B312" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>363</v>
+      </c>
+      <c r="B313" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>367</v>
+      </c>
+      <c r="B314" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>369</v>
+      </c>
+      <c r="B315" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>371</v>
+      </c>
+      <c r="B316" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>373</v>
+      </c>
+      <c r="B317" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>374</v>
+      </c>
+      <c r="B318" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>375</v>
+      </c>
+      <c r="B319" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>376</v>
+      </c>
+      <c r="B320" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C316"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="s">
+        <v>69</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>69</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" t="s">
+        <v>69</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>115</v>
+      </c>
+      <c r="B121" t="s">
+        <v>69</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>115</v>
+      </c>
+      <c r="B122" t="s">
+        <v>84</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>116</v>
+      </c>
+      <c r="B123" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" t="s">
+        <v>69</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>116</v>
+      </c>
+      <c r="B125" t="s">
+        <v>86</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" t="s">
+        <v>68</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>117</v>
+      </c>
+      <c r="B128" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>118</v>
+      </c>
+      <c r="B129" t="s">
+        <v>90</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>118</v>
+      </c>
+      <c r="B130" t="s">
+        <v>91</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>118</v>
+      </c>
+      <c r="B131" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>119</v>
+      </c>
+      <c r="B132" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>119</v>
+      </c>
+      <c r="B133" t="s">
+        <v>91</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>119</v>
+      </c>
+      <c r="B134" t="s">
+        <v>94</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>120</v>
+      </c>
+      <c r="B135" t="s">
+        <v>90</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" t="s">
+        <v>91</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>120</v>
+      </c>
+      <c r="B137" t="s">
+        <v>96</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>121</v>
+      </c>
+      <c r="B138" t="s">
+        <v>90</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>121</v>
+      </c>
+      <c r="B139" t="s">
+        <v>91</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>121</v>
+      </c>
+      <c r="B140" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>122</v>
+      </c>
+      <c r="B141" t="s">
+        <v>90</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>122</v>
+      </c>
+      <c r="B142" t="s">
+        <v>91</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>122</v>
+      </c>
+      <c r="B143" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>123</v>
+      </c>
+      <c r="B145" t="s">
+        <v>91</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>123</v>
+      </c>
+      <c r="B146" t="s">
+        <v>102</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147" t="s">
+        <v>90</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>124</v>
+      </c>
+      <c r="B148" t="s">
+        <v>91</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" t="s">
+        <v>104</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>125</v>
+      </c>
+      <c r="B150" t="s">
+        <v>90</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" t="s">
+        <v>91</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>125</v>
+      </c>
+      <c r="B152" t="s">
+        <v>106</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>126</v>
+      </c>
+      <c r="B153" t="s">
+        <v>90</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>126</v>
+      </c>
+      <c r="B154" t="s">
+        <v>91</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>126</v>
+      </c>
+      <c r="B155" t="s">
+        <v>108</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>127</v>
+      </c>
+      <c r="B156" t="s">
+        <v>128</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>127</v>
+      </c>
+      <c r="B157" t="s">
+        <v>129</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" t="s">
+        <v>130</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>131</v>
+      </c>
+      <c r="B159" t="s">
+        <v>128</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>131</v>
+      </c>
+      <c r="B160" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>131</v>
+      </c>
+      <c r="B161" t="s">
+        <v>132</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>133</v>
+      </c>
+      <c r="B162" t="s">
+        <v>128</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>133</v>
+      </c>
+      <c r="B163" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164" t="s">
+        <v>134</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>135</v>
+      </c>
+      <c r="B165" t="s">
+        <v>128</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>135</v>
+      </c>
+      <c r="B166" t="s">
+        <v>129</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>135</v>
+      </c>
+      <c r="B167" t="s">
+        <v>136</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>137</v>
+      </c>
+      <c r="B168" t="s">
+        <v>128</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169" t="s">
+        <v>129</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>137</v>
+      </c>
+      <c r="B170" t="s">
+        <v>138</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>139</v>
+      </c>
+      <c r="B171" t="s">
+        <v>128</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>139</v>
+      </c>
+      <c r="B172" t="s">
+        <v>129</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>139</v>
+      </c>
+      <c r="B173" t="s">
+        <v>140</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>141</v>
+      </c>
+      <c r="B174" t="s">
+        <v>128</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>141</v>
+      </c>
+      <c r="B175" t="s">
+        <v>129</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>141</v>
+      </c>
+      <c r="B176" t="s">
+        <v>142</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>143</v>
+      </c>
+      <c r="B177" t="s">
+        <v>128</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>143</v>
+      </c>
+      <c r="B178" t="s">
+        <v>129</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>143</v>
+      </c>
+      <c r="B179" t="s">
+        <v>144</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>145</v>
+      </c>
+      <c r="B180" t="s">
+        <v>128</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>145</v>
+      </c>
+      <c r="B181" t="s">
+        <v>129</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>145</v>
+      </c>
+      <c r="B182" t="s">
+        <v>146</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>147</v>
+      </c>
+      <c r="B183" t="s">
+        <v>148</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>149</v>
+      </c>
+      <c r="B184" t="s">
+        <v>150</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>151</v>
+      </c>
+      <c r="B185" t="s">
+        <v>152</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>153</v>
+      </c>
+      <c r="B186" t="s">
+        <v>154</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>155</v>
+      </c>
+      <c r="B187" t="s">
+        <v>156</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>157</v>
+      </c>
+      <c r="B188" t="s">
+        <v>158</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>159</v>
+      </c>
+      <c r="B189" t="s">
+        <v>160</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>161</v>
+      </c>
+      <c r="B190" t="s">
+        <v>162</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>163</v>
+      </c>
+      <c r="B191" t="s">
+        <v>164</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>165</v>
+      </c>
+      <c r="B192" t="s">
+        <v>166</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>167</v>
+      </c>
+      <c r="B193" t="s">
+        <v>168</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>169</v>
+      </c>
+      <c r="B194" t="s">
+        <v>170</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>171</v>
+      </c>
+      <c r="B195" t="s">
+        <v>172</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>173</v>
+      </c>
+      <c r="B196" t="s">
+        <v>174</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>175</v>
+      </c>
+      <c r="B197" t="s">
+        <v>176</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>177</v>
+      </c>
+      <c r="B198" t="s">
+        <v>178</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>179</v>
+      </c>
+      <c r="B199" t="s">
+        <v>180</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>181</v>
+      </c>
+      <c r="B200" t="s">
+        <v>182</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>183</v>
+      </c>
+      <c r="B201" t="s">
+        <v>184</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>185</v>
+      </c>
+      <c r="B202" t="s">
+        <v>186</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>187</v>
+      </c>
+      <c r="B203" t="s">
+        <v>188</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>189</v>
+      </c>
+      <c r="B204" t="s">
+        <v>190</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>191</v>
+      </c>
+      <c r="B205" t="s">
+        <v>192</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>193</v>
+      </c>
+      <c r="B206" t="s">
+        <v>194</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>195</v>
+      </c>
+      <c r="B207" t="s">
+        <v>196</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>197</v>
+      </c>
+      <c r="B208" t="s">
+        <v>198</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>199</v>
+      </c>
+      <c r="B209" t="s">
+        <v>200</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>201</v>
+      </c>
+      <c r="B210" t="s">
+        <v>202</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>203</v>
+      </c>
+      <c r="B211" t="s">
+        <v>204</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>205</v>
+      </c>
+      <c r="B212" t="s">
+        <v>206</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>207</v>
+      </c>
+      <c r="B213" t="s">
+        <v>208</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>209</v>
+      </c>
+      <c r="B214" t="s">
+        <v>210</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>211</v>
+      </c>
+      <c r="B215" t="s">
+        <v>212</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>213</v>
+      </c>
+      <c r="B216" t="s">
+        <v>214</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>216</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>218</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" t="s">
+        <v>220</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" t="s">
+        <v>174</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" t="s">
+        <v>176</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" t="s">
+        <v>178</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" t="s">
+        <v>180</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" t="s">
+        <v>226</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225" t="s">
+        <v>192</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226" t="s">
+        <v>194</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227" t="s">
+        <v>196</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228" t="s">
+        <v>198</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229" t="s">
+        <v>232</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" t="s">
+        <v>210</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" t="s">
+        <v>212</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" t="s">
+        <v>214</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" t="s">
+        <v>216</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" t="s">
+        <v>238</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235" t="s">
+        <v>240</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>241</v>
+      </c>
+      <c r="B236" t="s">
+        <v>242</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>243</v>
+      </c>
+      <c r="B237" t="s">
+        <v>244</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>245</v>
+      </c>
+      <c r="B238" t="s">
+        <v>246</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>247</v>
+      </c>
+      <c r="B239" t="s">
+        <v>248</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>249</v>
+      </c>
+      <c r="B240" t="s">
+        <v>250</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>251</v>
+      </c>
+      <c r="B241" t="s">
+        <v>252</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>253</v>
+      </c>
+      <c r="B242" t="s">
+        <v>254</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>255</v>
+      </c>
+      <c r="B243" t="s">
+        <v>256</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>257</v>
+      </c>
+      <c r="B244" t="s">
+        <v>258</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>259</v>
+      </c>
+      <c r="B245" t="s">
+        <v>260</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>261</v>
+      </c>
+      <c r="B246" t="s">
+        <v>262</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>263</v>
+      </c>
+      <c r="B247" t="s">
+        <v>264</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>265</v>
+      </c>
+      <c r="B248" t="s">
+        <v>266</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>267</v>
+      </c>
+      <c r="B249" t="s">
+        <v>268</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>269</v>
+      </c>
+      <c r="B250" t="s">
+        <v>270</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>271</v>
+      </c>
+      <c r="B251" t="s">
+        <v>272</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>273</v>
+      </c>
+      <c r="B252" t="s">
+        <v>274</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>275</v>
+      </c>
+      <c r="B253" t="s">
+        <v>276</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>277</v>
+      </c>
+      <c r="B254" t="s">
+        <v>278</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>279</v>
+      </c>
+      <c r="B255" t="s">
+        <v>280</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>281</v>
+      </c>
+      <c r="B256" t="s">
+        <v>282</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>283</v>
+      </c>
+      <c r="B257" t="s">
+        <v>284</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>285</v>
+      </c>
+      <c r="B258" t="s">
+        <v>286</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>287</v>
+      </c>
+      <c r="B259" t="s">
+        <v>288</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>289</v>
+      </c>
+      <c r="B260" t="s">
+        <v>290</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>291</v>
+      </c>
+      <c r="B261" t="s">
+        <v>292</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>293</v>
+      </c>
+      <c r="B262" t="s">
+        <v>294</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>295</v>
+      </c>
+      <c r="B263" t="s">
+        <v>296</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>297</v>
+      </c>
+      <c r="B264" t="s">
+        <v>298</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>299</v>
+      </c>
+      <c r="B265" t="s">
+        <v>300</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>301</v>
+      </c>
+      <c r="B266" t="s">
+        <v>302</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>303</v>
+      </c>
+      <c r="B267" t="s">
+        <v>304</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>305</v>
+      </c>
+      <c r="B268" t="s">
+        <v>306</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>307</v>
+      </c>
+      <c r="B269" t="s">
+        <v>308</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>309</v>
+      </c>
+      <c r="B270" t="s">
+        <v>310</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>311</v>
+      </c>
+      <c r="B271" t="s">
+        <v>312</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>313</v>
+      </c>
+      <c r="B272" t="s">
+        <v>314</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>315</v>
+      </c>
+      <c r="B273" t="s">
+        <v>316</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>317</v>
+      </c>
+      <c r="B274" t="s">
+        <v>318</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>319</v>
+      </c>
+      <c r="B275" t="s">
+        <v>320</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>321</v>
+      </c>
+      <c r="B276" t="s">
+        <v>322</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>323</v>
+      </c>
+      <c r="B277" t="s">
+        <v>324</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>325</v>
+      </c>
+      <c r="B278" t="s">
+        <v>326</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>327</v>
+      </c>
+      <c r="B279" t="s">
+        <v>328</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>329</v>
+      </c>
+      <c r="B280" t="s">
+        <v>330</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>331</v>
+      </c>
+      <c r="B281" t="s">
+        <v>332</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>333</v>
+      </c>
+      <c r="B282" t="s">
+        <v>334</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>335</v>
+      </c>
+      <c r="B283" t="s">
+        <v>264</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>336</v>
+      </c>
+      <c r="B284" t="s">
+        <v>266</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>337</v>
+      </c>
+      <c r="B285" t="s">
+        <v>268</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>338</v>
+      </c>
+      <c r="B286" t="s">
+        <v>270</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>339</v>
+      </c>
+      <c r="B287" t="s">
+        <v>272</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>340</v>
+      </c>
+      <c r="B288" t="s">
+        <v>284</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>341</v>
+      </c>
+      <c r="B289" t="s">
+        <v>286</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>342</v>
+      </c>
+      <c r="B290" t="s">
+        <v>288</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>343</v>
+      </c>
+      <c r="B291" t="s">
+        <v>290</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>344</v>
+      </c>
+      <c r="B292" t="s">
+        <v>292</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>345</v>
+      </c>
+      <c r="B293" t="s">
+        <v>304</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>346</v>
+      </c>
+      <c r="B294" t="s">
+        <v>306</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>347</v>
+      </c>
+      <c r="B295" t="s">
+        <v>308</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>348</v>
+      </c>
+      <c r="B296" t="s">
+        <v>310</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>349</v>
+      </c>
+      <c r="B297" t="s">
+        <v>312</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>350</v>
+      </c>
+      <c r="B298" t="s">
+        <v>324</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>351</v>
+      </c>
+      <c r="B299" t="s">
+        <v>326</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>352</v>
+      </c>
+      <c r="B300" t="s">
+        <v>328</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>353</v>
+      </c>
+      <c r="B301" t="s">
+        <v>330</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>354</v>
+      </c>
+      <c r="B302" t="s">
+        <v>332</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>355</v>
+      </c>
+      <c r="B303" t="s">
+        <v>356</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>357</v>
+      </c>
+      <c r="B304" t="s">
+        <v>358</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>359</v>
+      </c>
+      <c r="B305" t="s">
+        <v>360</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>361</v>
+      </c>
+      <c r="B306" t="s">
+        <v>362</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>363</v>
+      </c>
+      <c r="B307" t="s">
+        <v>364</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>363</v>
+      </c>
+      <c r="B308" t="s">
+        <v>365</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>363</v>
+      </c>
+      <c r="B309" t="s">
+        <v>366</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>367</v>
+      </c>
+      <c r="B310" t="s">
+        <v>368</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>369</v>
+      </c>
+      <c r="B311" t="s">
+        <v>370</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>371</v>
+      </c>
+      <c r="B312" t="s">
+        <v>372</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>373</v>
+      </c>
+      <c r="B313" t="s">
+        <v>372</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>374</v>
+      </c>
+      <c r="B314" t="s">
+        <v>368</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>375</v>
+      </c>
+      <c r="B315" t="s">
+        <v>370</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>376</v>
+      </c>
+      <c r="B316" t="s">
+        <v>372</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/post_processing/Relationships.xlsx
+++ b/post_processing/Relationships.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/post_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_E6672D5B98E296E2707F87DE2BDA3B3D535D894A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{786C25C5-E97B-4099-A8CE-E885AD258A1A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_4EF780B4CC196D1A09DC4B1F3E8DCC8FF1D1DF0B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02EF77D9-519D-40F3-AE94-81066D1B3D73}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="693" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Local + Elements (no mult)" sheetId="9" r:id="rId1"/>
+    <sheet name="Local + Elements (no mult)" sheetId="1" r:id="rId1"/>
+    <sheet name="Relationships_20250203_183110" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Elements_Range">INDEX(_xlfn.ANCHORARRAY(#REF!),,2)</definedName>
@@ -36,30 +37,11 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="415">
+  <si>
+    <t>Product-Product Relationships</t>
+  </si>
   <si>
     <t>Product_Id</t>
   </si>
@@ -67,129 +49,189 @@
     <t>Product_Id_Child</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>CKPL213F88_1</t>
+  </si>
+  <si>
+    <t>CKP213F102_1</t>
+  </si>
+  <si>
+    <t>CKPL213F88_2</t>
+  </si>
+  <si>
+    <t>CKP213F102_2</t>
+  </si>
+  <si>
+    <t>CKPL213F88_3</t>
+  </si>
+  <si>
+    <t>CKP213F102_3</t>
+  </si>
+  <si>
+    <t>CKPL213F88_4</t>
+  </si>
+  <si>
+    <t>CKP213F102_4</t>
+  </si>
+  <si>
+    <t>CKPL231F88_5</t>
+  </si>
+  <si>
+    <t>CKP231F102_5</t>
+  </si>
+  <si>
+    <t>CKPL213F88_6</t>
+  </si>
+  <si>
+    <t>CKP213F102_6</t>
+  </si>
+  <si>
+    <t>CKPL213F88_7</t>
+  </si>
+  <si>
+    <t>CKP213F102_7</t>
+  </si>
+  <si>
+    <t>CKPL213F88_8</t>
+  </si>
+  <si>
+    <t>CKP213F102_8</t>
+  </si>
+  <si>
+    <t>CKPL213F88_9</t>
+  </si>
+  <si>
+    <t>CKP213F102_9</t>
+  </si>
+  <si>
+    <t>CKPL213F88_10</t>
+  </si>
+  <si>
+    <t>CKP213F102_10</t>
+  </si>
+  <si>
+    <t>CKPL222F88_1</t>
+  </si>
+  <si>
+    <t>CKP222F102_1</t>
+  </si>
+  <si>
+    <t>CKPL222F88_2</t>
+  </si>
+  <si>
+    <t>CKP222F102_2</t>
+  </si>
+  <si>
+    <t>CKPL222F88_3</t>
+  </si>
+  <si>
+    <t>CKP222F102_3</t>
+  </si>
+  <si>
+    <t>CKPL222F88_4</t>
+  </si>
+  <si>
+    <t>CKP222F102_4</t>
+  </si>
+  <si>
+    <t>CKPL222F88_5</t>
+  </si>
+  <si>
+    <t>CKP222F102_5</t>
+  </si>
+  <si>
+    <t>CKPL222F88_6</t>
+  </si>
+  <si>
+    <t>CKP222F102_6</t>
+  </si>
+  <si>
+    <t>CKPL222F88_7</t>
+  </si>
+  <si>
+    <t>CKP222F102_7</t>
+  </si>
+  <si>
+    <t>CKPL222F88_8</t>
+  </si>
+  <si>
+    <t>CKP222F102_8</t>
+  </si>
+  <si>
+    <t>CKPL222F88_9</t>
+  </si>
+  <si>
+    <t>CKP222F102_9</t>
+  </si>
+  <si>
+    <t>CKPL222F88_10</t>
+  </si>
+  <si>
+    <t>CKP222F102_10</t>
+  </si>
+  <si>
+    <t>CKPL231F88_1</t>
+  </si>
+  <si>
+    <t>CKP231F102_1</t>
+  </si>
+  <si>
+    <t>CKPL231F88_2</t>
+  </si>
+  <si>
+    <t>CKP231F102_2</t>
+  </si>
+  <si>
+    <t>CKPL231F88_3</t>
+  </si>
+  <si>
+    <t>CKP231F102_3</t>
+  </si>
+  <si>
+    <t>CKPL231F88_4</t>
+  </si>
+  <si>
+    <t>CKP231F102_4</t>
+  </si>
+  <si>
+    <t>CKPL231F88_6</t>
+  </si>
+  <si>
+    <t>CKP231F102_6</t>
+  </si>
+  <si>
+    <t>CKPL231F88_7</t>
+  </si>
+  <si>
+    <t>CKP231F102_7</t>
+  </si>
+  <si>
+    <t>CKPL231F88_8</t>
+  </si>
+  <si>
+    <t>CKP231F102_8</t>
+  </si>
+  <si>
+    <t>CKPL231F88_9</t>
+  </si>
+  <si>
+    <t>CKP231F102_9</t>
+  </si>
+  <si>
+    <t>CKPL231F88_10</t>
+  </si>
+  <si>
+    <t>CKP231F102_10</t>
+  </si>
+  <si>
     <t>Product-Element Relationships</t>
   </si>
   <si>
     <t>Element_Id</t>
   </si>
   <si>
-    <t>Product-Product Relationships</t>
-  </si>
-  <si>
-    <t>CKPL222F88_1</t>
-  </si>
-  <si>
-    <t>CKP222F102_1</t>
-  </si>
-  <si>
-    <t>CKPL222F88_2</t>
-  </si>
-  <si>
-    <t>CKP222F102_2</t>
-  </si>
-  <si>
-    <t>CKPL222F88_3</t>
-  </si>
-  <si>
-    <t>CKP222F102_3</t>
-  </si>
-  <si>
-    <t>CKPL222F88_4</t>
-  </si>
-  <si>
-    <t>CKP222F102_4</t>
-  </si>
-  <si>
-    <t>CKPL222F88_5</t>
-  </si>
-  <si>
-    <t>CKP222F102_5</t>
-  </si>
-  <si>
-    <t>CKPL222F88_6</t>
-  </si>
-  <si>
-    <t>CKP222F102_6</t>
-  </si>
-  <si>
-    <t>CKPL222F88_7</t>
-  </si>
-  <si>
-    <t>CKP222F102_7</t>
-  </si>
-  <si>
-    <t>CKPL222F88_8</t>
-  </si>
-  <si>
-    <t>CKP222F102_8</t>
-  </si>
-  <si>
-    <t>CKPL222F88_9</t>
-  </si>
-  <si>
-    <t>CKP222F102_9</t>
-  </si>
-  <si>
-    <t>CKPL222F88_10</t>
-  </si>
-  <si>
-    <t>CKP222F102_10</t>
-  </si>
-  <si>
-    <t>CKPL231F88_1</t>
-  </si>
-  <si>
-    <t>CKP231F102_1</t>
-  </si>
-  <si>
-    <t>CKPL231F88_2</t>
-  </si>
-  <si>
-    <t>CKP231F102_2</t>
-  </si>
-  <si>
-    <t>CKPL231F88_3</t>
-  </si>
-  <si>
-    <t>CKP231F102_3</t>
-  </si>
-  <si>
-    <t>CKPL231F88_4</t>
-  </si>
-  <si>
-    <t>CKP231F102_4</t>
-  </si>
-  <si>
-    <t>CKPL231F88_6</t>
-  </si>
-  <si>
-    <t>CKP231F102_6</t>
-  </si>
-  <si>
-    <t>CKPL231F88_7</t>
-  </si>
-  <si>
-    <t>CKP231F102_7</t>
-  </si>
-  <si>
-    <t>CKPL231F88_8</t>
-  </si>
-  <si>
-    <t>CKP231F102_8</t>
-  </si>
-  <si>
-    <t>CKPL231F88_9</t>
-  </si>
-  <si>
-    <t>CKP231F102_9</t>
-  </si>
-  <si>
-    <t>CKPL231F88_10</t>
-  </si>
-  <si>
-    <t>CKP231F102_10</t>
-  </si>
-  <si>
     <t>LADE 600x500_20.676</t>
   </si>
   <si>
@@ -1123,67 +1165,124 @@
     <t>C141BL45-G_9</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>CKPL213F88_1</t>
-  </si>
-  <si>
-    <t>CKP213F102_1</t>
-  </si>
-  <si>
-    <t>CKPL213F88_2</t>
-  </si>
-  <si>
-    <t>CKP213F102_2</t>
-  </si>
-  <si>
-    <t>CKPL213F88_3</t>
-  </si>
-  <si>
-    <t>CKP213F102_3</t>
-  </si>
-  <si>
-    <t>CKPL213F88_4</t>
-  </si>
-  <si>
-    <t>CKP213F102_4</t>
-  </si>
-  <si>
-    <t>CKPL231F88_5</t>
-  </si>
-  <si>
-    <t>CKP231F102_5</t>
-  </si>
-  <si>
-    <t>CKPL213F88_6</t>
-  </si>
-  <si>
-    <t>CKP213F102_6</t>
-  </si>
-  <si>
-    <t>CKPL213F88_7</t>
-  </si>
-  <si>
-    <t>CKP213F102_7</t>
-  </si>
-  <si>
-    <t>CKPL213F88_8</t>
-  </si>
-  <si>
-    <t>CKP213F102_8</t>
-  </si>
-  <si>
-    <t>CKPL213F88_9</t>
-  </si>
-  <si>
-    <t>CKP213F102_9</t>
-  </si>
-  <si>
-    <t>CKPL213F88_10</t>
-  </si>
-  <si>
-    <t>CKP213F102_10</t>
+    <t>COPBL50FLES_2</t>
+  </si>
+  <si>
+    <t>COPBL50FLES_3</t>
+  </si>
+  <si>
+    <t>COPBL50FLES_4</t>
+  </si>
+  <si>
+    <t>COPBL50FLES_5</t>
+  </si>
+  <si>
+    <t>COPBL50FLES_6</t>
+  </si>
+  <si>
+    <t>COPBL50FLES_7</t>
+  </si>
+  <si>
+    <t>COPBL50FLES_8</t>
+  </si>
+  <si>
+    <t>COPBL50FLES_9</t>
+  </si>
+  <si>
+    <t>COPBL50FLES_10</t>
+  </si>
+  <si>
+    <t>COPBL60FLES_1</t>
+  </si>
+  <si>
+    <t>CO60_53.766</t>
+  </si>
+  <si>
+    <t>PLADE 60_39.113</t>
+  </si>
+  <si>
+    <t>FR596x790_9.173</t>
+  </si>
+  <si>
+    <t>COPBL60FLES_2</t>
+  </si>
+  <si>
+    <t>FR596x790_15.517</t>
+  </si>
+  <si>
+    <t>COPBL60FLES_3</t>
+  </si>
+  <si>
+    <t>FR596x790_29.501</t>
+  </si>
+  <si>
+    <t>COPBL60FLES_4</t>
+  </si>
+  <si>
+    <t>FR596x790_35.199</t>
+  </si>
+  <si>
+    <t>COPBL60FLES_5</t>
+  </si>
+  <si>
+    <t>FR596x790_40.119</t>
+  </si>
+  <si>
+    <t>COPBL60FLES_6</t>
+  </si>
+  <si>
+    <t>FR596x790_50.477</t>
+  </si>
+  <si>
+    <t>COPBL60FLES_7</t>
+  </si>
+  <si>
+    <t>FR596x790_55.657</t>
+  </si>
+  <si>
+    <t>COPBL60FLES_8</t>
+  </si>
+  <si>
+    <t>FR596x790_60.836</t>
+  </si>
+  <si>
+    <t>COPBL60FLES_9</t>
+  </si>
+  <si>
+    <t>FR596x790_81.553</t>
+  </si>
+  <si>
+    <t>COPBL60FLES_10</t>
+  </si>
+  <si>
+    <t>FR596x790_97.09</t>
+  </si>
+  <si>
+    <t>COPBL60_2</t>
+  </si>
+  <si>
+    <t>COPBL60_3</t>
+  </si>
+  <si>
+    <t>COPBL60_4</t>
+  </si>
+  <si>
+    <t>COPBL60_5</t>
+  </si>
+  <si>
+    <t>COPBL60_6</t>
+  </si>
+  <si>
+    <t>COPBL60_7</t>
+  </si>
+  <si>
+    <t>COPBL60_8</t>
+  </si>
+  <si>
+    <t>COPBL60_9</t>
+  </si>
+  <si>
+    <t>COPBL60_10</t>
   </si>
 </sst>
 </file>
@@ -1500,11 +1599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,41 +1616,41 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3" t="str" cm="1">
+      <c r="E3" t="str">
         <f t="array" ref="E3:E209">_xlfn.UNIQUE(_xlfn.VSTACK(A3:A31,A36:A336))</f>
         <v>CKPL213F88_1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1562,10 +1661,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1576,10 +1675,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1590,10 +1689,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1604,10 +1703,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1618,10 +1717,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1632,10 +1731,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>369</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1646,10 +1745,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1660,10 +1759,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1674,10 +1773,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1688,10 +1787,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1702,10 +1801,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1716,10 +1815,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1730,10 +1829,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1744,10 +1843,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1758,10 +1857,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1772,10 +1871,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1786,10 +1885,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1800,10 +1899,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1814,10 +1913,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1828,10 +1927,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1842,10 +1941,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1856,10 +1955,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1870,10 +1969,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1884,10 +1983,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1898,10 +1997,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1912,10 +2011,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1926,10 +2025,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1950,7 +2049,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="E34" t="str">
         <v>COPBL40FLES_3</v>
@@ -1958,13 +2057,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
         <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>354</v>
       </c>
       <c r="E35" t="str">
         <v>COPBL40FLES_4</v>
@@ -1972,10 +2071,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1986,10 +2085,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>357</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2000,10 +2099,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>359</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2014,10 +2113,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>361</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2028,10 +2127,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>363</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -2042,10 +2141,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>365</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2056,10 +2155,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>367</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2070,10 +2169,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>369</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2084,10 +2183,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2098,10 +2197,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>373</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2112,10 +2211,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2126,10 +2225,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2140,10 +2239,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2154,10 +2253,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2168,10 +2267,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2182,10 +2281,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2196,10 +2295,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2210,10 +2309,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2224,10 +2323,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2238,10 +2337,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2252,10 +2351,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2266,10 +2365,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2280,10 +2379,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2294,10 +2393,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2308,10 +2407,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2322,10 +2421,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2336,10 +2435,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2350,10 +2449,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2364,10 +2463,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2378,10 +2477,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2392,10 +2491,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2406,10 +2505,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2420,10 +2519,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2434,10 +2533,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2448,10 +2547,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2462,10 +2561,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2476,10 +2575,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2490,10 +2589,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2504,10 +2603,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2518,10 +2617,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2532,10 +2631,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2546,10 +2645,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2560,10 +2659,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2574,10 +2673,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2588,10 +2687,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2602,10 +2701,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2616,10 +2715,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2630,10 +2729,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2644,10 +2743,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2658,10 +2757,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2672,10 +2771,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -2686,10 +2785,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -2700,10 +2799,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -2714,10 +2813,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -2728,10 +2827,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2742,10 +2841,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -2756,10 +2855,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -2770,10 +2869,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2784,10 +2883,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -2798,10 +2897,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -2812,10 +2911,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2826,10 +2925,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2840,10 +2939,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2854,10 +2953,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -2868,10 +2967,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -2882,10 +2981,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2896,10 +2995,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B102" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2910,10 +3009,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B103" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2924,10 +3023,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2938,10 +3037,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B105" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -2952,10 +3051,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B106" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -2966,10 +3065,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -2980,10 +3079,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B108" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2994,10 +3093,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -3008,10 +3107,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -3022,10 +3121,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B111" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -3036,10 +3135,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -3050,10 +3149,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B113" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3064,10 +3163,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B114" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3078,10 +3177,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B115" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3092,10 +3191,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B116" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3106,10 +3205,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B117" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3120,10 +3219,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3134,10 +3233,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B119" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3148,10 +3247,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B120" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -3162,10 +3261,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B121" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3176,10 +3275,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B122" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3190,10 +3289,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3204,10 +3303,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3218,10 +3317,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B125" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3232,10 +3331,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B126" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -3246,10 +3345,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B127" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3260,10 +3359,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B128" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3274,10 +3373,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B129" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3288,10 +3387,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B130" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -3302,10 +3401,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B131" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3316,10 +3415,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B132" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -3330,10 +3429,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B133" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3344,10 +3443,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B134" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -3358,10 +3457,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B135" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -3372,10 +3471,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B136" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -3386,10 +3485,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -3400,10 +3499,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B138" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -3414,10 +3513,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B139" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -3428,10 +3527,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B140" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -3442,10 +3541,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B141" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -3456,10 +3555,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B142" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -3470,10 +3569,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B143" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -3484,10 +3583,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B144" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -3498,10 +3597,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B145" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -3512,10 +3611,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -3526,10 +3625,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B147" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -3540,10 +3639,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B148" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -3554,10 +3653,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B149" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -3568,10 +3667,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B150" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -3582,10 +3681,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B151" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -3596,10 +3695,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B152" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -3610,10 +3709,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B153" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -3624,10 +3723,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B154" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -3638,10 +3737,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B155" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -3652,10 +3751,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B156" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -3666,10 +3765,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B157" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -3680,10 +3779,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B158" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -3694,10 +3793,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B159" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -3708,10 +3807,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B160" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -3722,10 +3821,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B161" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -3736,10 +3835,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B162" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -3750,10 +3849,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B163" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -3764,10 +3863,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B164" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -3778,10 +3877,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B165" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -3792,10 +3891,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>121</v>
+      </c>
+      <c r="B166" t="s">
         <v>100</v>
-      </c>
-      <c r="B166" t="s">
-        <v>79</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -3806,10 +3905,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B167" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -3820,10 +3919,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B168" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -3834,10 +3933,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B169" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -3848,10 +3947,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B170" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -3862,10 +3961,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B171" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -3876,10 +3975,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B172" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -3890,10 +3989,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B173" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -3904,10 +4003,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B174" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -3918,10 +4017,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B175" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -3932,10 +4031,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B176" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -3946,10 +4045,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B177" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -3960,10 +4059,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B178" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -3974,10 +4073,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B179" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -3988,10 +4087,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B180" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -4002,10 +4101,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B181" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -4016,10 +4115,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B182" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -4030,10 +4129,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B183" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -4044,10 +4143,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B184" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -4058,10 +4157,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B185" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -4072,10 +4171,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B186" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -4086,10 +4185,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B187" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -4100,10 +4199,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B188" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -4114,10 +4213,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B189" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -4128,10 +4227,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B190" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -4142,10 +4241,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B191" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -4156,10 +4255,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B192" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -4170,10 +4269,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B193" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -4184,10 +4283,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B194" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -4198,10 +4297,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B195" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -4212,10 +4311,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B196" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -4226,10 +4325,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B197" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -4240,10 +4339,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B198" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -4254,10 +4353,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B199" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -4268,10 +4367,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B200" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -4282,10 +4381,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B201" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -4296,10 +4395,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B202" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -4310,10 +4409,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B203" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -4324,10 +4423,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B204" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -4338,10 +4437,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B205" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -4352,10 +4451,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B206" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -4366,10 +4465,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B207" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C207">
         <v>2</v>
@@ -4380,10 +4479,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="B208" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -4394,10 +4493,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B209" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -4408,10 +4507,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B210" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -4419,10 +4518,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B211" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -4430,10 +4529,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B212" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -4441,10 +4540,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B213" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -4452,10 +4551,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B214" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -4463,10 +4562,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B215" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -4474,10 +4573,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B216" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C216">
         <v>2</v>
@@ -4485,10 +4584,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B217" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -4496,10 +4595,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B218" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -4507,10 +4606,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B219" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -4518,10 +4617,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B220" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -4529,10 +4628,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B221" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -4540,10 +4639,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B222" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -4551,10 +4650,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="B223" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -4562,10 +4661,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="B224" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -4573,10 +4672,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B225" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C225">
         <v>2</v>
@@ -4584,10 +4683,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="B226" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -4595,10 +4694,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="B227" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -4606,10 +4705,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B228" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -4617,10 +4716,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="B229" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -4628,10 +4727,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B230" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -4639,10 +4738,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B231" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -4650,10 +4749,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="B232" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -4661,10 +4760,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B233" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -4672,10 +4771,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B234" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C234">
         <v>2</v>
@@ -4683,10 +4782,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B235" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -4694,10 +4793,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="B236" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -4705,10 +4804,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="B237" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -4716,10 +4815,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="B238" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -4727,10 +4826,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="B239" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -4738,10 +4837,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B240" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -4749,10 +4848,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="B241" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -4760,10 +4859,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="B242" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -4771,10 +4870,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="B243" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -4782,10 +4881,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="B244" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -4793,10 +4892,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B245" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -4804,10 +4903,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="B246" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -4815,10 +4914,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B247" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -4826,10 +4925,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="B248" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -4837,10 +4936,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="B249" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -4848,10 +4947,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="B250" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -4859,10 +4958,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="B251" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -4870,10 +4969,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>233</v>
+      </c>
+      <c r="B252" t="s">
         <v>212</v>
-      </c>
-      <c r="B252" t="s">
-        <v>191</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -4881,10 +4980,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B253" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -4892,10 +4991,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="B254" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -4903,10 +5002,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B255" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -4914,10 +5013,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="B256" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -4925,10 +5024,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="B257" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -4936,10 +5035,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="B258" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -4947,10 +5046,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="B259" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -4958,10 +5057,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="B260" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -4969,10 +5068,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B261" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -4980,10 +5079,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B262" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -4991,10 +5090,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B263" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -5002,10 +5101,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B264" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -5013,10 +5112,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="B265" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -5024,10 +5123,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="B266" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -5035,10 +5134,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B267" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -5046,10 +5145,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B268" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -5057,10 +5156,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B269" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -5068,10 +5167,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -5079,10 +5178,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -5090,10 +5189,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -5101,10 +5200,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -5112,10 +5211,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="B274" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -5123,10 +5222,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -5134,10 +5233,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -5145,10 +5244,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="B277" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -5156,10 +5255,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="B278" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -5167,10 +5266,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B279" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -5178,10 +5277,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="B280" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -5189,10 +5288,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="B281" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -5200,10 +5299,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B282" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -5211,10 +5310,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="B283" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -5222,10 +5321,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="B284" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -5233,10 +5332,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="B285" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -5244,10 +5343,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="B286" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -5255,10 +5354,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="B287" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -5266,10 +5365,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="B288" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -5277,10 +5376,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="B289" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -5288,10 +5387,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="B290" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -5299,10 +5398,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="B291" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -5310,10 +5409,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="B292" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -5321,10 +5420,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="B293" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -5332,10 +5431,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B294" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -5343,10 +5442,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="B295" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -5354,10 +5453,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="B296" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -5365,10 +5464,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="B297" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -5376,10 +5475,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="B298" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -5387,10 +5486,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="B299" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -5398,10 +5497,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="B300" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -5409,10 +5508,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="B301" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -5420,10 +5519,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="B302" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -5431,10 +5530,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="B303" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -5442,10 +5541,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="B304" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -5453,10 +5552,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="B305" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -5464,10 +5563,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="B306" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -5475,10 +5574,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="B307" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -5486,10 +5585,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="B308" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -5497,10 +5596,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="B309" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -5508,10 +5607,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="B310" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -5519,10 +5618,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="B311" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -5530,10 +5629,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="B312" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -5541,10 +5640,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="B313" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="C313">
         <v>1</v>
@@ -5552,10 +5651,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="B314" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -5563,10 +5662,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="B315" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -5574,10 +5673,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="B316" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -5585,10 +5684,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="B317" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -5596,10 +5695,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="B318" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -5607,10 +5706,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="B319" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -5618,10 +5717,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="B320" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -5629,10 +5728,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="B321" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -5640,10 +5739,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="B322" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -5651,10 +5750,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="B323" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -5662,10 +5761,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B324" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -5673,10 +5772,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="B325" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -5684,10 +5783,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="B326" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -5695,10 +5794,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="B327" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="C327">
         <v>1</v>
@@ -5706,10 +5805,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="B328" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="C328">
         <v>1</v>
@@ -5717,10 +5816,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="B329" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="C329">
         <v>1</v>
@@ -5728,10 +5827,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="B330" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -5739,10 +5838,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="B331" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -5750,10 +5849,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="B332" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -5761,10 +5860,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="B333" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -5772,10 +5871,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="B334" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -5783,10 +5882,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="B335" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -5794,12 +5893,972 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="B336" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="C336">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>381</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>381</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>382</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B30" t="s">
+        <v>385</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B31" t="s">
+        <v>386</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>384</v>
+      </c>
+      <c r="B32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>388</v>
+      </c>
+      <c r="B33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>388</v>
+      </c>
+      <c r="B34" t="s">
+        <v>386</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>388</v>
+      </c>
+      <c r="B35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>390</v>
+      </c>
+      <c r="B36" t="s">
+        <v>385</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>390</v>
+      </c>
+      <c r="B37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>390</v>
+      </c>
+      <c r="B38" t="s">
+        <v>391</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>392</v>
+      </c>
+      <c r="B39" t="s">
+        <v>385</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>392</v>
+      </c>
+      <c r="B40" t="s">
+        <v>386</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>392</v>
+      </c>
+      <c r="B41" t="s">
+        <v>393</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>394</v>
+      </c>
+      <c r="B42" t="s">
+        <v>385</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>394</v>
+      </c>
+      <c r="B43" t="s">
+        <v>386</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>394</v>
+      </c>
+      <c r="B44" t="s">
+        <v>395</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>396</v>
+      </c>
+      <c r="B45" t="s">
+        <v>385</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>396</v>
+      </c>
+      <c r="B46" t="s">
+        <v>386</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>396</v>
+      </c>
+      <c r="B47" t="s">
+        <v>397</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>398</v>
+      </c>
+      <c r="B48" t="s">
+        <v>385</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>398</v>
+      </c>
+      <c r="B49" t="s">
+        <v>386</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>398</v>
+      </c>
+      <c r="B50" t="s">
+        <v>399</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>400</v>
+      </c>
+      <c r="B51" t="s">
+        <v>385</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>400</v>
+      </c>
+      <c r="B52" t="s">
+        <v>386</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>400</v>
+      </c>
+      <c r="B53" t="s">
+        <v>401</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>402</v>
+      </c>
+      <c r="B54" t="s">
+        <v>385</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>402</v>
+      </c>
+      <c r="B55" t="s">
+        <v>386</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>402</v>
+      </c>
+      <c r="B56" t="s">
+        <v>403</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>404</v>
+      </c>
+      <c r="B57" t="s">
+        <v>385</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>404</v>
+      </c>
+      <c r="B58" t="s">
+        <v>386</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>404</v>
+      </c>
+      <c r="B59" t="s">
+        <v>405</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>406</v>
+      </c>
+      <c r="B60" t="s">
+        <v>385</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>406</v>
+      </c>
+      <c r="B61" t="s">
+        <v>386</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>406</v>
+      </c>
+      <c r="B62" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>407</v>
+      </c>
+      <c r="B63" t="s">
+        <v>385</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>407</v>
+      </c>
+      <c r="B64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>407</v>
+      </c>
+      <c r="B65" t="s">
+        <v>391</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>408</v>
+      </c>
+      <c r="B66" t="s">
+        <v>385</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>408</v>
+      </c>
+      <c r="B67" t="s">
+        <v>386</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>408</v>
+      </c>
+      <c r="B68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>409</v>
+      </c>
+      <c r="B69" t="s">
+        <v>385</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>409</v>
+      </c>
+      <c r="B70" t="s">
+        <v>386</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>409</v>
+      </c>
+      <c r="B71" t="s">
+        <v>395</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>410</v>
+      </c>
+      <c r="B72" t="s">
+        <v>385</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>410</v>
+      </c>
+      <c r="B73" t="s">
+        <v>386</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>410</v>
+      </c>
+      <c r="B74" t="s">
+        <v>397</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>411</v>
+      </c>
+      <c r="B75" t="s">
+        <v>385</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>411</v>
+      </c>
+      <c r="B76" t="s">
+        <v>386</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>411</v>
+      </c>
+      <c r="B77" t="s">
+        <v>399</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>412</v>
+      </c>
+      <c r="B78" t="s">
+        <v>385</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>412</v>
+      </c>
+      <c r="B79" t="s">
+        <v>386</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>412</v>
+      </c>
+      <c r="B80" t="s">
+        <v>401</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>413</v>
+      </c>
+      <c r="B81" t="s">
+        <v>385</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>413</v>
+      </c>
+      <c r="B82" t="s">
+        <v>386</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>413</v>
+      </c>
+      <c r="B83" t="s">
+        <v>403</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>414</v>
+      </c>
+      <c r="B84" t="s">
+        <v>385</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>414</v>
+      </c>
+      <c r="B85" t="s">
+        <v>386</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>414</v>
+      </c>
+      <c r="B86" t="s">
+        <v>405</v>
+      </c>
+      <c r="C86">
         <v>1</v>
       </c>
     </row>

--- a/post_processing/Relationships.xlsx
+++ b/post_processing/Relationships.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/post_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4EF780B4CC196D1A09DC4B1F3E8DCC8FF1D1DF0B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02EF77D9-519D-40F3-AE94-81066D1B3D73}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_4EF780B4CC196D1A09DC4B1F3E8DCC8FF1D1DF0B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB6B4CD-7236-46D4-8A3E-515C5856D4E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="693" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" tabRatio="693" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Local + Elements (no mult)" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1335,6 +1357,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5909,10 +5935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5922,12 +5948,12 @@
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5938,7 +5964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>375</v>
       </c>
@@ -5948,8 +5974,12 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="str" cm="1">
+        <f t="array" ref="E3:E30">_xlfn.UNIQUE(A3:A86)</f>
+        <v>COPBL50FLES_2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>375</v>
       </c>
@@ -5959,8 +5989,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="str">
+        <v>COPBL50FLES_3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>375</v>
       </c>
@@ -5970,8 +6003,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <v>COPBL50FLES_4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>376</v>
       </c>
@@ -5981,8 +6017,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <v>COPBL50FLES_5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>376</v>
       </c>
@@ -5992,8 +6031,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <v>COPBL50FLES_6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>376</v>
       </c>
@@ -6003,8 +6045,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <v>COPBL50FLES_7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>377</v>
       </c>
@@ -6014,8 +6059,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <v>COPBL50FLES_8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>377</v>
       </c>
@@ -6025,8 +6073,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <v>COPBL50FLES_9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>377</v>
       </c>
@@ -6036,8 +6087,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <v>COPBL50FLES_10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>378</v>
       </c>
@@ -6047,8 +6101,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <v>COPBL60FLES_1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>378</v>
       </c>
@@ -6058,8 +6115,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <v>COPBL60FLES_2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>378</v>
       </c>
@@ -6069,8 +6129,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <v>COPBL60FLES_3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>379</v>
       </c>
@@ -6080,8 +6143,11 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <v>COPBL60FLES_4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -6091,8 +6157,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <v>COPBL60FLES_5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>379</v>
       </c>
@@ -6102,8 +6171,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <v>COPBL60FLES_6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>380</v>
       </c>
@@ -6113,8 +6185,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <v>COPBL60FLES_7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>380</v>
       </c>
@@ -6124,8 +6199,11 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <v>COPBL60FLES_8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>380</v>
       </c>
@@ -6135,8 +6213,11 @@
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <v>COPBL60FLES_9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>381</v>
       </c>
@@ -6146,8 +6227,11 @@
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <v>COPBL60FLES_10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>381</v>
       </c>
@@ -6157,8 +6241,11 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <v>COPBL60_2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>381</v>
       </c>
@@ -6168,8 +6255,11 @@
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <v>COPBL60_3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>382</v>
       </c>
@@ -6179,8 +6269,11 @@
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <v>COPBL60_4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>382</v>
       </c>
@@ -6190,8 +6283,11 @@
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <v>COPBL60_5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>382</v>
       </c>
@@ -6201,8 +6297,11 @@
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <v>COPBL60_6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>383</v>
       </c>
@@ -6212,8 +6311,11 @@
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <v>COPBL60_7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>383</v>
       </c>
@@ -6223,8 +6325,11 @@
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <v>COPBL60_8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>383</v>
       </c>
@@ -6234,8 +6339,11 @@
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <v>COPBL60_9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>384</v>
       </c>
@@ -6245,8 +6353,11 @@
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <v>COPBL60_10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>384</v>
       </c>
@@ -6257,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>384</v>
       </c>

--- a/post_processing/Relationships.xlsx
+++ b/post_processing/Relationships.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mordrel-my.sharepoint.com/personal/matthieu_mordrel_pro/Documents/Work/Projects/Kovera/Project 2/Scripts/Project/post_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4EF780B4CC196D1A09DC4B1F3E8DCC8FF1D1DF0B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB6B4CD-7236-46D4-8A3E-515C5856D4E9}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_4EF780B4CC196D1A09DC4B1F3E8DCC8FF1D1DF0B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D39218-A16F-4F07-A558-8B4DB55682F7}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3510" windowWidth="29040" windowHeight="15840" tabRatio="693" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1357,10 +1357,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1629,7 +1625,7 @@
   <dimension ref="A1:E336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A3" sqref="A3:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1662,7 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" t="str" cm="1">
         <f t="array" ref="E3:E209">_xlfn.UNIQUE(_xlfn.VSTACK(A3:A31,A36:A336))</f>
         <v>CKPL213F88_1</v>
       </c>
@@ -5938,7 +5934,7 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
